--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,67 +46,73 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>shortage</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>drop</t>
@@ -118,103 +124,121 @@
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>important</t>
+    <t>key</t>
   </si>
   <si>
     <t>please</t>
@@ -223,28 +247,28 @@
     <t>energy</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>available</t>
+    <t>increased</t>
   </si>
   <si>
     <t>online</t>
@@ -253,7 +277,19 @@
     <t>shopping</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -611,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -751,16 +787,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,16 +837,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8717948717948718</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,16 +887,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.868421052631579</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.9083333333333333</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L7">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8611111111111112</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.9017857142857143</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,16 +1037,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,16 +1087,16 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.890625</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.839041095890411</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8823529411764706</v>
+        <v>0.9</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8275862068965517</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8780487804878049</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,38 +1216,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L13">
         <v>24</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L13">
-        <v>31</v>
-      </c>
-      <c r="M13">
-        <v>31</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1222,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7837837837837838</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.8490566037735849</v>
+        <v>0.8828125</v>
       </c>
       <c r="L14">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7435897435897436</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.8461538461538461</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7096774193548387</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.8448275862068966</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7037037037037037</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.8095238095238095</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L17">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="M17">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6944444444444444</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.8093994778067886</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,7 +1516,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -1498,31 +1534,31 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L19">
+        <v>48</v>
+      </c>
+      <c r="M19">
+        <v>48</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>10</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19">
-        <v>0.80625</v>
-      </c>
-      <c r="L19">
-        <v>129</v>
-      </c>
-      <c r="M19">
-        <v>129</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.65</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,16 +1587,16 @@
         <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.78</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5949612403100775</v>
+        <v>0.5852713178294574</v>
       </c>
       <c r="C21">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D21">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.7674418604651163</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5600000000000001</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.7659574468085106</v>
+        <v>0.80625</v>
       </c>
       <c r="L22">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="M22">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1672,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,13 +1716,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5098039215686274</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1698,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.7186440677966102</v>
+        <v>0.8</v>
       </c>
       <c r="L23">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1722,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1730,13 +1766,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4899328859060403</v>
+        <v>0.525</v>
       </c>
       <c r="C24">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1748,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.7058823529411765</v>
+        <v>0.7911227154046997</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1772,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,13 +1816,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4067796610169492</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1798,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.7037037037037037</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1822,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1830,13 +1866,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4067796610169492</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1848,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.6944444444444444</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1872,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1880,13 +1916,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4021164021164021</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C27">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1898,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>0.6941176470588235</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L27">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1922,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1930,37 +1966,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3888888888888889</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>35</v>
       </c>
-      <c r="D28">
-        <v>35</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>55</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.6875</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1972,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1980,13 +2016,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3766233766233766</v>
+        <v>0.4021164021164021</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1998,19 +2034,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.6741573033707865</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L29">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2022,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2030,37 +2066,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2142857142857143</v>
+        <v>0.4</v>
       </c>
       <c r="C30">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>54</v>
       </c>
-      <c r="D30">
-        <v>54</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>198</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.6461538461538462</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2072,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2080,13 +2116,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0938337801608579</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2098,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>338</v>
+        <v>184</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K31">
-        <v>0.6444444444444445</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2122,345 +2158,653 @@
         <v>0</v>
       </c>
       <c r="Q31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.25</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>60</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="L32">
+        <v>22</v>
+      </c>
+      <c r="M32">
+        <v>22</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.1126005361930295</v>
+      </c>
+      <c r="C33">
+        <v>42</v>
+      </c>
+      <c r="D33">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>331</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L33">
+        <v>34</v>
+      </c>
+      <c r="M33">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>0.7</v>
+      </c>
+      <c r="L34">
+        <v>238</v>
+      </c>
+      <c r="M34">
+        <v>238</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>0.6629213483146067</v>
+      </c>
+      <c r="L35">
+        <v>59</v>
+      </c>
+      <c r="M35">
+        <v>59</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="L36">
+        <v>43</v>
+      </c>
+      <c r="M36">
+        <v>43</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L37">
+        <v>31</v>
+      </c>
+      <c r="M37">
+        <v>31</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32">
-        <v>0.6401673640167364</v>
-      </c>
-      <c r="L32">
-        <v>153</v>
-      </c>
-      <c r="M32">
-        <v>153</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38">
+        <v>0.6569037656903766</v>
+      </c>
+      <c r="L38">
+        <v>157</v>
+      </c>
+      <c r="M38">
+        <v>157</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <v>0.65</v>
+      </c>
+      <c r="L39">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40">
+        <v>0.65</v>
+      </c>
+      <c r="L40">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41">
+        <v>0.6</v>
+      </c>
+      <c r="L41">
+        <v>42</v>
+      </c>
+      <c r="M41">
+        <v>42</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42">
+        <v>0.5625</v>
+      </c>
+      <c r="L42">
+        <v>36</v>
+      </c>
+      <c r="M42">
+        <v>36</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43">
+        <v>0.5476190476190477</v>
+      </c>
+      <c r="L43">
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <v>23</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="L44">
+        <v>37</v>
+      </c>
+      <c r="M44">
+        <v>37</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K45">
+        <v>0.5</v>
+      </c>
+      <c r="L45">
+        <v>39</v>
+      </c>
+      <c r="M45">
+        <v>39</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46">
+        <v>0.459016393442623</v>
+      </c>
+      <c r="L46">
+        <v>28</v>
+      </c>
+      <c r="M46">
+        <v>28</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="L47">
+        <v>19</v>
+      </c>
+      <c r="M47">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K48">
+        <v>0.1267942583732057</v>
+      </c>
+      <c r="L48">
+        <v>53</v>
+      </c>
+      <c r="M48">
+        <v>53</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33">
-        <v>0.625</v>
-      </c>
-      <c r="L33">
-        <v>25</v>
-      </c>
-      <c r="M33">
-        <v>25</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34">
-        <v>0.6142857142857143</v>
-      </c>
-      <c r="L34">
-        <v>43</v>
-      </c>
-      <c r="M34">
-        <v>43</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K35">
-        <v>0.59375</v>
-      </c>
-      <c r="L35">
-        <v>38</v>
-      </c>
-      <c r="M35">
-        <v>38</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
+      <c r="K49">
+        <v>0.1201923076923077</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49">
+        <v>50</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K51">
+        <v>0.04</v>
+      </c>
+      <c r="L51">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36">
-        <v>0.5616438356164384</v>
-      </c>
-      <c r="L36">
-        <v>41</v>
-      </c>
-      <c r="M36">
-        <v>41</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37">
-        <v>0.5531914893617021</v>
-      </c>
-      <c r="L37">
+      <c r="M51">
         <v>26</v>
       </c>
-      <c r="M37">
-        <v>26</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K38">
-        <v>0.5256410256410257</v>
-      </c>
-      <c r="L38">
-        <v>41</v>
-      </c>
-      <c r="M38">
-        <v>41</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L39">
-        <v>19</v>
-      </c>
-      <c r="M39">
-        <v>19</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K40">
-        <v>0.360655737704918</v>
-      </c>
-      <c r="L40">
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K52">
+        <v>0.03131991051454139</v>
+      </c>
+      <c r="L52">
+        <v>28</v>
+      </c>
+      <c r="M52">
+        <v>28</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K53">
+        <v>0.0244173140954495</v>
+      </c>
+      <c r="L53">
         <v>22</v>
       </c>
-      <c r="M40">
+      <c r="M53">
         <v>22</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54">
+        <v>0.01819878674755016</v>
+      </c>
+      <c r="L54">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41">
-        <v>0.3559322033898305</v>
-      </c>
-      <c r="L41">
-        <v>21</v>
-      </c>
-      <c r="M41">
-        <v>21</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42">
-        <v>0.1004784688995215</v>
-      </c>
-      <c r="L42">
-        <v>42</v>
-      </c>
-      <c r="M42">
-        <v>42</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K43">
-        <v>0.0889423076923077</v>
-      </c>
-      <c r="L43">
-        <v>37</v>
-      </c>
-      <c r="M43">
-        <v>37</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44">
-        <v>0.02796420581655481</v>
-      </c>
-      <c r="L44">
-        <v>25</v>
-      </c>
-      <c r="M44">
-        <v>25</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>869</v>
+      <c r="M54">
+        <v>39</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>2104</v>
       </c>
     </row>
   </sheetData>
